--- a/data/processed/missing_values/df_missing_values_month.xlsx
+++ b/data/processed/missing_values/df_missing_values_month.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,14 +468,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -483,23 +483,23 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.6818181818181818</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -507,23 +507,23 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7931034482758621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -531,23 +531,23 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8064516129032258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -555,23 +555,23 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -579,23 +579,23 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8064516129032258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -603,23 +603,23 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -627,23 +627,23 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1935483870967742</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -651,23 +651,23 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -675,23 +675,23 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -699,23 +699,23 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -723,23 +723,23 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -747,9 +747,729 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>22</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>21</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>23</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>23</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>22</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>21</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>21</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>22</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>22</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>22</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>22</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>22</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>22</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>23</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>23</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>20</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>22</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>22</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>21</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>21</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>23</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>23</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>21</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>21</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>22</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>22</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>22</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>22</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-12</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>21</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>21</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>23</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>23</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>20</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>21</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>21</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>21</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>22</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>22</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>23</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>23</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>20</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>23</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>23</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>22</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>22</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>21</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>21</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>23</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>23</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>21</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>21</v>
+      </c>
+      <c r="F43" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/processed/missing_values/df_missing_values_month.xlsx
+++ b/data/processed/missing_values/df_missing_values_month.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,1009 +468,841 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6818181818181818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Palmawasi</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Nuevo Horizonte</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>22</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Palmawasi</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Nuevo Horizonte</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>22</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Palmawasi</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>22</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Nuevo Horizonte</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Palmawasi</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>23</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Nuevo Horizonte</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>21</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.3283582089552239</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.3278688524590164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.3384615384615385</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.3278688524590164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.3382352941176471</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.3442622950819672</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0.3384615384615385</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0.3492063492063492</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0.328125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>38</v>
+      </c>
+      <c r="C22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0.6551724137931034</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B23" t="n">
+        <v>44</v>
+      </c>
+      <c r="C23" t="n">
         <v>23</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0.6567164179104478</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0.6515151515151515</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0.639344262295082</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0.6376811594202898</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="B27" t="n">
+        <v>42</v>
+      </c>
+      <c r="C27" t="n">
         <v>21</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0.696969696969697</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0.6721311475409836</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0.6716417910447762</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0.6825396825396826</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C34" t="n">
         <v>20</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.696969696969697</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.6716417910447762</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Nuevo Horizonte</t>
+          <t>Palmawasi</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2024-05</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>23</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Nuevo Horizonte</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>23</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2024-06</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>20</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Nuevo Horizonte</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>20</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2024-07</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>23</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Nuevo Horizonte</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>23</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2024-08</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>22</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Nuevo Horizonte</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>22</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2024-09</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>21</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Nuevo Horizonte</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>21</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2024-10</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>23</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Nuevo Horizonte</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>23</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2024-11</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>21</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Nuevo Horizonte</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>21</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
+        <v>0.6896551724137931</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/missing_values/df_missing_values_month.xlsx
+++ b/data/processed/missing_values/df_missing_values_month.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,841 +468,1009 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.6818181818181818</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2380952380952381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3283582089552239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3278688524590164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3384615384615385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3278688524590164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3382352941176471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3442622950819672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3384615384615385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3492063492063492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>0.328125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3448275862068966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C21" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1818181818181818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>20</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Palmawasi</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>58</v>
-      </c>
       <c r="F22" t="n">
-        <v>0.6551724137931034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6567164179104478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6515151515151515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>0.639344262295082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6376811594202898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C27" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C28" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F29" t="n">
-        <v>0.696969696969697</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6721311475409836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C31" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6716417910447762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6825396825396826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C33" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>20</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F34" t="n">
-        <v>0.696969696969697</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Palmawasi</t>
+          <t>Nuevo Horizonte</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6716417910447762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>22</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>22</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>23</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>23</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>2024-06</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>40</v>
-      </c>
-      <c r="C36" t="n">
-        <v>18</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Palmawasi</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>58</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.6896551724137931</v>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>20</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>20</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>23</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>23</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>22</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>22</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>21</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>21</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>23</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>23</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>21</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Nuevo Horizonte</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>21</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
